--- a/tactile_tabletop/Character Cards/Tactile_Tabletop_Data-Level_4_CC.xlsx
+++ b/tactile_tabletop/Character Cards/Tactile_Tabletop_Data-Level_4_CC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\TableTopRolePlaying_Squib\tactile_tabletop\Character Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofoltz\TT\TableTopRolePlaying_Squib\tactile_tabletop\Character Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3E52BB-64E3-4D39-8CB5-D61B6DFAE543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7119C5-57FC-4E28-ADC1-BDD9F40D6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="26370" windowHeight="15690"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactile Tabletop Data - Level 4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Top Ability Name</t>
   </si>
@@ -101,12 +101,81 @@
   </si>
   <si>
     <t>6 Finese and 4 Strength</t>
+  </si>
+  <si>
+    <t>Lightning Strike</t>
+  </si>
+  <si>
+    <t>Attack    X = Level</t>
+  </si>
+  <si>
+    <t>Attack Target Enemy twice and add X to each Attack Value. Discard a card.</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Reliable Strike</t>
+  </si>
+  <si>
+    <t>Attack target, add X to your Attack Value. If no damage is dealt then return this card to your hand.</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Richochet</t>
+  </si>
+  <si>
+    <t>X Rnds</t>
+  </si>
+  <si>
+    <t>X = Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your next attack value does not damage a targetted enemy, add X to the the next attack value and attack another  target enemy in range. Repeat this process until damage is dealt, or there are no new enemies you can target. </t>
+  </si>
+  <si>
+    <t>Near Miss</t>
+  </si>
+  <si>
+    <t>If your attack value does not damage the targeted enemy/enemies, they take X damage.</t>
+  </si>
+  <si>
+    <t>Swelling Rage</t>
+  </si>
+  <si>
+    <t>1 Rnd</t>
+  </si>
+  <si>
+    <t>Attack Target Enemy. If an ally attacks that same enemy this round then they add 1d4 to their attack values, and if another ally then attacks that enemy this round they add 2d4 to their attack values, and so on.</t>
+  </si>
+  <si>
+    <t>Adrenaline Assault</t>
+  </si>
+  <si>
+    <t>For this attack, treat 2 handed weapons as 1 handed weapons. You may equipt new weapons for this attack. If required, requipt your original weapons after the attack is finished.</t>
+  </si>
+  <si>
+    <t>Hand in Hand</t>
+  </si>
+  <si>
+    <t>Attack    X = Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You and target ally agree to X. If you each deal a combined X or more damage to target enemy this round then that enemy takes an additional X damage. If you and target ally do not deal a combined X or more damage to the target enemy this round then that enemy heals for X. </t>
+  </si>
+  <si>
+    <t>Common Enemy</t>
+  </si>
+  <si>
+    <t>A target ally may choose to spend one of their actions this round to attack Target Enemy and add their attack value to your attack value.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,12 +1009,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1033,6 +1107,158 @@
       </c>
       <c r="N2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
